--- a/pred_ohlcv/54_23/2019-10-15 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-15 ZRX ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3635,7 +3635,7 @@
         <v>371</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>375</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4394,10 +4394,10 @@
         <v>380</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="G350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -10397,7 +10397,7 @@
         <v>404</v>
       </c>
       <c r="F436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -10420,7 +10420,7 @@
         <v>404</v>
       </c>
       <c r="F437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -10443,7 +10443,7 @@
         <v>401</v>
       </c>
       <c r="F438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -10466,7 +10466,7 @@
         <v>401</v>
       </c>
       <c r="F439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -10581,7 +10581,7 @@
         <v>403</v>
       </c>
       <c r="F444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -10604,7 +10604,7 @@
         <v>403</v>
       </c>
       <c r="F445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -10627,7 +10627,7 @@
         <v>402</v>
       </c>
       <c r="F446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -10650,7 +10650,7 @@
         <v>404</v>
       </c>
       <c r="F447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -10673,7 +10673,7 @@
         <v>403</v>
       </c>
       <c r="F448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -10696,7 +10696,7 @@
         <v>403</v>
       </c>
       <c r="F449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -10719,7 +10719,7 @@
         <v>403</v>
       </c>
       <c r="F450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -10742,7 +10742,7 @@
         <v>403</v>
       </c>
       <c r="F451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -10765,7 +10765,7 @@
         <v>403</v>
       </c>
       <c r="F452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -10788,7 +10788,7 @@
         <v>403</v>
       </c>
       <c r="F453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -10811,7 +10811,7 @@
         <v>403</v>
       </c>
       <c r="F454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -10834,7 +10834,7 @@
         <v>404</v>
       </c>
       <c r="F455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>405</v>
       </c>
       <c r="F456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -11041,7 +11041,7 @@
         <v>405</v>
       </c>
       <c r="F464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -11064,7 +11064,7 @@
         <v>407</v>
       </c>
       <c r="F465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -11110,7 +11110,7 @@
         <v>405</v>
       </c>
       <c r="F467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -11133,7 +11133,7 @@
         <v>406</v>
       </c>
       <c r="F468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -11179,7 +11179,7 @@
         <v>406</v>
       </c>
       <c r="F470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -11202,7 +11202,7 @@
         <v>407</v>
       </c>
       <c r="F471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>406</v>
       </c>
       <c r="F472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -11248,7 +11248,7 @@
         <v>405</v>
       </c>
       <c r="F473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -11271,7 +11271,7 @@
         <v>402</v>
       </c>
       <c r="F474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="G487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="G488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="G489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -11646,6 +11646,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>